--- a/report.xlsx
+++ b/report.xlsx
@@ -664,7 +664,7 @@
         <v>42.218843</v>
       </c>
       <c r="T4">
-        <v>137.184525</v>
+        <v>137.1964</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
@@ -907,7 +907,7 @@
         <v>2.729086</v>
       </c>
       <c r="T8">
-        <v>63.38478</v>
+        <v>63.396655</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
@@ -1036,7 +1036,7 @@
         <v>8.993969999999999</v>
       </c>
       <c r="R10">
-        <v>16.261296</v>
+        <v>16.273171</v>
       </c>
       <c r="T10">
         <v>0.000162</v>
@@ -1551,7 +1551,7 @@
         <v>64.85269700000001</v>
       </c>
       <c r="T20">
-        <v>3.441435</v>
+        <v>3.45331</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="1">
@@ -1778,7 +1778,7 @@
         <v>13.890706</v>
       </c>
       <c r="T24">
-        <v>2.186076</v>
+        <v>2.197951</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1">
@@ -1842,7 +1842,7 @@
         <v>41.655243</v>
       </c>
       <c r="T25">
-        <v>207.417326</v>
+        <v>207.429201</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1">
@@ -1965,7 +1965,7 @@
         <v>113.011412</v>
       </c>
       <c r="T27">
-        <v>136.052199</v>
+        <v>136.064074</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1">
@@ -2202,7 +2202,7 @@
         <v>1.180266</v>
       </c>
       <c r="R31">
-        <v>10.209572</v>
+        <v>10.221447</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1">
@@ -2452,7 +2452,7 @@
         <v>0.00044</v>
       </c>
       <c r="R36">
-        <v>43.152975</v>
+        <v>43.16485</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1">
@@ -2518,7 +2518,7 @@
         <v>14.977234</v>
       </c>
       <c r="T37">
-        <v>234.083519</v>
+        <v>234.095394</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1">
@@ -2564,7 +2564,7 @@
         <v>34.876539</v>
       </c>
       <c r="O38">
-        <v>109.209826</v>
+        <v>109.221701</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="1">
@@ -2722,7 +2722,7 @@
         <v>13.853981</v>
       </c>
       <c r="O41">
-        <v>11.392095</v>
+        <v>11.40397</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="1">
@@ -2861,7 +2861,7 @@
         </is>
       </c>
       <c r="M44">
-        <v>43.215914</v>
+        <v>43.227789</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1">
@@ -3288,7 +3288,7 @@
         <v>9.3e-05</v>
       </c>
       <c r="O52">
-        <v>9.151493</v>
+        <v>9.163368</v>
       </c>
     </row>
     <row r="53" ht="18" customHeight="1">
@@ -3388,7 +3388,7 @@
         <v>4.013889</v>
       </c>
       <c r="T54">
-        <v>130.195336</v>
+        <v>130.207211</v>
       </c>
     </row>
     <row r="55" ht="18" customHeight="1">
@@ -3603,7 +3603,7 @@
         <v>7.945949</v>
       </c>
       <c r="O58">
-        <v>30.187037</v>
+        <v>30.198912</v>
       </c>
     </row>
     <row r="59" ht="18" customHeight="1">
@@ -3786,7 +3786,7 @@
         <v>0.000255</v>
       </c>
       <c r="R61">
-        <v>16.073889</v>
+        <v>16.085764</v>
       </c>
     </row>
     <row r="62" ht="18" customHeight="1">
@@ -3908,7 +3908,7 @@
         <v>7.022882</v>
       </c>
       <c r="T63">
-        <v>193.152315</v>
+        <v>193.16419</v>
       </c>
     </row>
     <row r="64" ht="18" customHeight="1">
@@ -4247,7 +4247,7 @@
         <v>28.182292</v>
       </c>
       <c r="T69">
-        <v>81.04387699999999</v>
+        <v>81.055752</v>
       </c>
     </row>
     <row r="70" ht="18" customHeight="1">
@@ -4354,7 +4354,7 @@
         <v>56.040683</v>
       </c>
       <c r="T71">
-        <v>179.146806</v>
+        <v>179.158681</v>
       </c>
     </row>
     <row r="72" ht="18" customHeight="1">
@@ -4517,7 +4517,7 @@
         <v>0.000185</v>
       </c>
       <c r="O74">
-        <v>2.184317</v>
+        <v>2.196192</v>
       </c>
     </row>
     <row r="75" ht="18" customHeight="1">
@@ -4580,7 +4580,7 @@
         <v>0.000243</v>
       </c>
       <c r="R75">
-        <v>46.192951</v>
+        <v>46.204826</v>
       </c>
     </row>
     <row r="76" ht="18" customHeight="1">
@@ -4703,7 +4703,7 @@
         <v>9.045624999999999</v>
       </c>
       <c r="R77">
-        <v>10.208461</v>
+        <v>10.220336</v>
       </c>
       <c r="T77">
         <v>5.998125</v>
@@ -4922,7 +4922,7 @@
         <v>0.001227</v>
       </c>
       <c r="R81">
-        <v>4.342905</v>
+        <v>4.35478</v>
       </c>
     </row>
     <row r="82" ht="18" customHeight="1">
@@ -4973,7 +4973,7 @@
         <v>23.0286</v>
       </c>
       <c r="O82">
-        <v>16.249306</v>
+        <v>16.261181</v>
       </c>
     </row>
     <row r="83" ht="18" customHeight="1">
@@ -5102,7 +5102,7 @@
         <v>18.981551</v>
       </c>
       <c r="T84">
-        <v>193.2536</v>
+        <v>193.265475</v>
       </c>
     </row>
     <row r="85" ht="18" customHeight="1">
@@ -5470,7 +5470,7 @@
         <v>14.166157</v>
       </c>
       <c r="T91">
-        <v>158.102859</v>
+        <v>158.114734</v>
       </c>
     </row>
     <row r="92" ht="18" customHeight="1">
@@ -5589,7 +5589,7 @@
         <v>6.9e-05</v>
       </c>
       <c r="T93">
-        <v>240.378565</v>
+        <v>240.39044</v>
       </c>
     </row>
     <row r="94" ht="18" customHeight="1">
@@ -5727,7 +5727,7 @@
         <v>10.888414</v>
       </c>
       <c r="T96">
-        <v>24.219618</v>
+        <v>24.231493</v>
       </c>
     </row>
     <row r="97" ht="18" customHeight="1">
@@ -5788,7 +5788,7 @@
         <v>18.05294</v>
       </c>
       <c r="T97">
-        <v>123.106157</v>
+        <v>123.118032</v>
       </c>
     </row>
     <row r="98" ht="18" customHeight="1">
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="M98">
-        <v>38.134815</v>
+        <v>38.14669</v>
       </c>
     </row>
     <row r="99" ht="18" customHeight="1">
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="M102">
-        <v>11.265174</v>
+        <v>11.277049</v>
       </c>
     </row>
     <row r="103" ht="18" customHeight="1">
@@ -6268,7 +6268,7 @@
         <v>0.000139</v>
       </c>
       <c r="P107">
-        <v>0.124595</v>
+        <v>0.13647</v>
       </c>
     </row>
     <row r="108" ht="18" customHeight="1">
@@ -6444,7 +6444,7 @@
         <v>26.694861</v>
       </c>
       <c r="T110">
-        <v>127.35412</v>
+        <v>127.365995</v>
       </c>
     </row>
     <row r="111" ht="18" customHeight="1">
@@ -6829,7 +6829,7 @@
         <v>0.000174</v>
       </c>
       <c r="O116">
-        <v>10.201586</v>
+        <v>10.213461</v>
       </c>
     </row>
     <row r="117" ht="18" customHeight="1">
@@ -6883,7 +6883,7 @@
         <v>7.03941</v>
       </c>
       <c r="P117">
-        <v>8.074525</v>
+        <v>8.086399999999999</v>
       </c>
     </row>
     <row r="118" ht="18" customHeight="1">
@@ -7181,7 +7181,7 @@
         <v>21.758553</v>
       </c>
       <c r="T122">
-        <v>3.43978</v>
+        <v>3.451655</v>
       </c>
     </row>
     <row r="123" ht="18" customHeight="1">
@@ -7387,7 +7387,7 @@
         <v>27.929549</v>
       </c>
       <c r="T126">
-        <v>221.122095</v>
+        <v>221.13397</v>
       </c>
     </row>
     <row r="127" ht="18" customHeight="1">
@@ -7484,7 +7484,7 @@
         <v>0.000116</v>
       </c>
       <c r="O128">
-        <v>42.077465</v>
+        <v>42.08934</v>
       </c>
     </row>
     <row r="129" ht="18" customHeight="1">
@@ -7517,7 +7517,7 @@
         </is>
       </c>
       <c r="M129">
-        <v>4.239792</v>
+        <v>4.251667</v>
       </c>
     </row>
     <row r="130" ht="18" customHeight="1">
@@ -7802,7 +7802,7 @@
         <v>21.006528</v>
       </c>
       <c r="T134">
-        <v>162.139711</v>
+        <v>162.151586</v>
       </c>
     </row>
     <row r="135" ht="18" customHeight="1">
@@ -7859,7 +7859,7 @@
         <v>44.044838</v>
       </c>
       <c r="T135">
-        <v>30.186944</v>
+        <v>30.198819</v>
       </c>
     </row>
     <row r="136" ht="18" customHeight="1">
@@ -8172,7 +8172,7 @@
         <v>6.097674</v>
       </c>
       <c r="O141">
-        <v>4.239618</v>
+        <v>4.251493</v>
       </c>
     </row>
     <row r="142" ht="18" customHeight="1">
@@ -8343,7 +8343,7 @@
         <v>17.095104</v>
       </c>
       <c r="T144">
-        <v>144.131435</v>
+        <v>144.14331</v>
       </c>
     </row>
     <row r="145" ht="18" customHeight="1">
@@ -8492,7 +8492,7 @@
         <v>15.037593</v>
       </c>
       <c r="T147">
-        <v>10.208657</v>
+        <v>10.220532</v>
       </c>
     </row>
     <row r="148" ht="18" customHeight="1">
@@ -8777,7 +8777,7 @@
         <v>0.000139</v>
       </c>
       <c r="T152">
-        <v>230.599606</v>
+        <v>230.611481</v>
       </c>
     </row>
     <row r="153" ht="18" customHeight="1">

--- a/report.xlsx
+++ b/report.xlsx
@@ -544,20 +544,20 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rafael Chiarella</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ganho</t>
+          <t>Perdido</t>
         </is>
       </c>
       <c r="C3" s="2">
-        <v>45363.89056444445</v>
+        <v>45385.58405269676</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FCAP JR</t>
+          <t>Escritório Bevilaqua</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -577,165 +577,165 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desenvolvimento Web, Site institucional</t>
+          <t>Landing/One page</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Comunidade CITi</t>
+          <t>Indicação de Ej</t>
         </is>
       </c>
       <c r="J3">
-        <v>2400</v>
+        <v>1300</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Perda para Concorrência</t>
+        </is>
       </c>
       <c r="M3">
-        <v>8.1e-05</v>
+        <v>0.006065</v>
       </c>
       <c r="N3">
-        <v>0.002731</v>
+        <v>5.8e-05</v>
       </c>
       <c r="O3">
-        <v>8.891781999999999</v>
+        <v>0.000683</v>
       </c>
       <c r="P3">
-        <v>6.112917</v>
+        <v>13.211748</v>
       </c>
       <c r="Q3">
-        <v>0.001424</v>
+        <v>0.000891</v>
       </c>
       <c r="R3">
-        <v>32.945347</v>
-      </c>
-      <c r="S3" s="2">
-        <v>45432.81548631944</v>
-      </c>
-      <c r="T3">
-        <v>20.970602</v>
+        <v>20.807037</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Luciene</t>
+          <t>Rafael Chiarella</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Renegociação</t>
+          <t>Ganho</t>
         </is>
       </c>
       <c r="C4" s="2">
-        <v>45372.6838349537</v>
+        <v>45363.89056444445</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reatto Ambiental </t>
+          <t>FCAP JR</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Camila Chagas</t>
+          <t>Hugo Guedes</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Startup</t>
+          <t>Empresas Juniores</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Meio Ambiente e Sustentabilidade</t>
+          <t>Consultoria e Serviços Profissionais</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Concepção, Desenvolvimento Mobile</t>
+          <t>Desenvolvimento Web, Site institucional</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Prospecção Ativa</t>
-        </is>
+          <t>Comunidade CITi</t>
+        </is>
+      </c>
+      <c r="J4">
+        <v>2400</v>
       </c>
       <c r="M4">
-        <v>3.849213</v>
+        <v>8.1e-05</v>
+      </c>
+      <c r="N4">
+        <v>0.002731</v>
       </c>
       <c r="O4">
-        <v>42.218843</v>
+        <v>8.891781999999999</v>
+      </c>
+      <c r="P4">
+        <v>6.112917</v>
+      </c>
+      <c r="Q4">
+        <v>0.001424</v>
+      </c>
+      <c r="R4">
+        <v>32.945347</v>
+      </c>
+      <c r="S4" s="2">
+        <v>45432.81548631944</v>
       </c>
       <c r="T4">
-        <v>137.1964</v>
+        <v>20.970602</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Laura</t>
+          <t>Luciene</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Perdido</t>
+          <t>Renegociação</t>
         </is>
       </c>
       <c r="C5" s="2">
-        <v>45385.58405269676</v>
+        <v>45372.6838349537</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Escritório Bevilaqua</t>
+          <t xml:space="preserve">Reatto Ambiental </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hugo Guedes</t>
+          <t>Camila Chagas</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Empresas Juniores</t>
+          <t>Startup</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Consultoria e Serviços Profissionais</t>
+          <t>Meio Ambiente e Sustentabilidade</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Landing/One page</t>
+          <t>Concepção, Desenvolvimento Mobile</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Indicação de Ej</t>
-        </is>
-      </c>
-      <c r="J5">
-        <v>1300</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Perda para Concorrência</t>
+          <t>Prospecção Ativa</t>
         </is>
       </c>
       <c r="M5">
-        <v>0.006065</v>
-      </c>
-      <c r="N5">
-        <v>5.8e-05</v>
+        <v>3.849213</v>
       </c>
       <c r="O5">
-        <v>0.000683</v>
-      </c>
-      <c r="P5">
-        <v>13.211748</v>
-      </c>
-      <c r="Q5">
-        <v>0.000891</v>
-      </c>
-      <c r="R5">
-        <v>20.807037</v>
+        <v>42.218843</v>
+      </c>
+      <c r="T5">
+        <v>137.212118</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -907,7 +907,7 @@
         <v>2.729086</v>
       </c>
       <c r="T8">
-        <v>63.396655</v>
+        <v>63.412373</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
@@ -982,64 +982,39 @@
     <row r="10" ht="18" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Anne</t>
+          <t>Tiago Jubran</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Negociação</t>
+          <t>Perdido</t>
         </is>
       </c>
       <c r="C10" s="2">
-        <v>45523.55171350695</v>
+        <v>45419.50311577546</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Grupo de Pesquisa - UFPE</t>
+          <t>Ex diretor de projetos da Locus Luris</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Camila Chagas</t>
+          <t>Nayara VIthória Araújo de Sena</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grupo de pesquisa</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Saúde e Cuidados Médicos</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Desenvolvimento Mobile, Desenvolvimento Web, Site institucional</t>
+          <t>Empreendedor</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>CIn</t>
+          <t>Indicação MEJ</t>
         </is>
       </c>
       <c r="M10">
-        <v>0.000995</v>
-      </c>
-      <c r="N10">
-        <v>0.003206</v>
-      </c>
-      <c r="O10">
-        <v>7.125069</v>
-      </c>
-      <c r="P10">
-        <v>8.993969999999999</v>
-      </c>
-      <c r="R10">
-        <v>16.273171</v>
-      </c>
-      <c r="T10">
-        <v>0.000162</v>
+        <v>6.033507</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1">
@@ -1098,39 +1073,64 @@
     <row r="12" ht="18" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tiago Jubran</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Perdido</t>
+          <t>Negociação</t>
         </is>
       </c>
       <c r="C12" s="2">
-        <v>45419.50311577546</v>
+        <v>45523.55171350695</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ex diretor de projetos da Locus Luris</t>
+          <t>Grupo de Pesquisa - UFPE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Nayara VIthória Araújo de Sena</t>
+          <t>Camila Chagas</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Empreendedor</t>
+          <t>Grupo de pesquisa</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Saúde e Cuidados Médicos</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Desenvolvimento Mobile, Desenvolvimento Web, Site institucional</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Indicação MEJ</t>
+          <t>CIn</t>
         </is>
       </c>
       <c r="M12">
-        <v>6.033507</v>
+        <v>0.000995</v>
+      </c>
+      <c r="N12">
+        <v>0.003206</v>
+      </c>
+      <c r="O12">
+        <v>7.125069</v>
+      </c>
+      <c r="P12">
+        <v>8.993969999999999</v>
+      </c>
+      <c r="R12">
+        <v>16.288889</v>
+      </c>
+      <c r="T12">
+        <v>0.000162</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1">
@@ -1199,25 +1199,25 @@
     <row r="14" ht="18" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bruno Moraes Leão</t>
+          <t>Maria Angélica</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Perdido</t>
+          <t>Leads não-qualificados</t>
         </is>
       </c>
       <c r="C14" s="2">
-        <v>45358.79006246528</v>
+        <v>45341.75640490741</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Agrictech</t>
+          <t>Inoprev</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Camila Chagas</t>
+          <t>Nayara VIthória Araújo de Sena</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1227,12 +1227,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Agricultura e Agroindústria</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Site institucional</t>
+          <t>Biotecnologia e Farmacêutica</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1241,46 +1236,31 @@
         </is>
       </c>
       <c r="M14">
-        <v>0.000266</v>
-      </c>
-      <c r="N14">
-        <v>7.872685</v>
-      </c>
-      <c r="O14">
-        <v>0.000648</v>
-      </c>
-      <c r="P14">
-        <v>9.866481</v>
-      </c>
-      <c r="Q14">
-        <v>0.000208</v>
-      </c>
-      <c r="R14">
-        <v>35.27309</v>
+        <v>6.935</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Maria Angélica</t>
+          <t>Bruno Moraes Leão</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Leads não-qualificados</t>
+          <t>Perdido</t>
         </is>
       </c>
       <c r="C15" s="2">
-        <v>45341.75640490741</v>
+        <v>45358.79006246528</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Inoprev</t>
+          <t>Agrictech</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Nayara VIthória Araújo de Sena</t>
+          <t>Camila Chagas</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1290,7 +1270,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Biotecnologia e Farmacêutica</t>
+          <t>Agricultura e Agroindústria</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Site institucional</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1299,7 +1284,22 @@
         </is>
       </c>
       <c r="M15">
-        <v>6.935</v>
+        <v>0.000266</v>
+      </c>
+      <c r="N15">
+        <v>7.872685</v>
+      </c>
+      <c r="O15">
+        <v>0.000648</v>
+      </c>
+      <c r="P15">
+        <v>9.866481</v>
+      </c>
+      <c r="Q15">
+        <v>0.000208</v>
+      </c>
+      <c r="R15">
+        <v>35.27309</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="1">
@@ -1551,7 +1551,7 @@
         <v>64.85269700000001</v>
       </c>
       <c r="T20">
-        <v>3.45331</v>
+        <v>3.469028</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="1">
@@ -1778,7 +1778,7 @@
         <v>13.890706</v>
       </c>
       <c r="T24">
-        <v>2.197951</v>
+        <v>2.213669</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1">
@@ -1842,7 +1842,7 @@
         <v>41.655243</v>
       </c>
       <c r="T25">
-        <v>207.429201</v>
+        <v>207.444919</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1">
@@ -1905,86 +1905,86 @@
     <row r="27" ht="18" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Julio Andrade</t>
+          <t>Alessio Sandro de Oliveira Silva</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Renegociação</t>
+          <t>Ganho</t>
         </is>
       </c>
       <c r="C27" s="2">
-        <v>45306.87167284722</v>
+        <v>45366.66791053241</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Neoenergia</t>
+          <t>Busca Por Emprego</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pedro de Lima Fernandes Costa</t>
+          <t>Camila Chagas</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Empresa consolidada</t>
+          <t>Startup</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Energia e Sustentabilidade</t>
+          <t>Educação e Ensino</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Concepção, Desenvolvimento Web</t>
+          <t>Desenvolvimento Web</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Parcerias</t>
-        </is>
+          <t>Prospecção Ativa</t>
+        </is>
+      </c>
+      <c r="J27">
+        <v>28000</v>
       </c>
       <c r="M27">
-        <v>0.000116</v>
-      </c>
-      <c r="N27">
-        <v>0.000127</v>
+        <v>3.031968</v>
       </c>
       <c r="O27">
-        <v>0.000243</v>
+        <v>21.072303</v>
       </c>
       <c r="P27">
-        <v>0.000324</v>
+        <v>41.910648</v>
       </c>
       <c r="Q27">
-        <v>0.000313</v>
+        <v>27.862975</v>
       </c>
       <c r="R27">
-        <v>113.011412</v>
-      </c>
-      <c r="T27">
-        <v>136.064074</v>
+        <v>36.275914</v>
+      </c>
+      <c r="S27" s="2">
+        <v>45496.82174923611</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Victor Rodrigues</t>
+          <t>Julio Andrade</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Perdido</t>
+          <t>Renegociação</t>
         </is>
       </c>
       <c r="C28" s="2">
-        <v>45306.88092071759</v>
+        <v>45306.87167284722</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Zeal</t>
+          <t>Neoenergia</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1994,110 +1994,110 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Empreendedor</t>
+          <t>Empresa consolidada</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Saúde e Cuidados Médicos</t>
+          <t>Energia e Sustentabilidade</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Concepção</t>
+          <t>Concepção, Desenvolvimento Web</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Parcerias</t>
         </is>
       </c>
       <c r="M28">
-        <v>0.000613</v>
+        <v>0.000116</v>
       </c>
       <c r="N28">
         <v>0.000127</v>
       </c>
       <c r="O28">
-        <v>0.000336</v>
+        <v>0.000243</v>
       </c>
       <c r="P28">
-        <v>8.705532</v>
+        <v>0.000324</v>
       </c>
       <c r="Q28">
-        <v>4.979144</v>
+        <v>0.000313</v>
       </c>
       <c r="R28">
-        <v>0.00037</v>
+        <v>113.011412</v>
       </c>
       <c r="T28">
-        <v>6.932465</v>
+        <v>136.079792</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Alessio Sandro de Oliveira Silva</t>
+          <t>Victor Rodrigues</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ganho</t>
+          <t>Perdido</t>
         </is>
       </c>
       <c r="C29" s="2">
-        <v>45366.66791053241</v>
+        <v>45306.88092071759</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Busca Por Emprego</t>
+          <t>Zeal</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Camila Chagas</t>
+          <t>Pedro de Lima Fernandes Costa</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Startup</t>
+          <t>Empreendedor</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Educação e Ensino</t>
+          <t>Saúde e Cuidados Médicos</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desenvolvimento Web</t>
+          <t>Concepção</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Prospecção Ativa</t>
-        </is>
-      </c>
-      <c r="J29">
-        <v>28000</v>
+          <t>Marketing</t>
+        </is>
       </c>
       <c r="M29">
-        <v>3.031968</v>
+        <v>0.000613</v>
+      </c>
+      <c r="N29">
+        <v>0.000127</v>
       </c>
       <c r="O29">
-        <v>21.072303</v>
+        <v>0.000336</v>
       </c>
       <c r="P29">
-        <v>41.910648</v>
+        <v>8.705532</v>
       </c>
       <c r="Q29">
-        <v>27.862975</v>
+        <v>4.979144</v>
       </c>
       <c r="R29">
-        <v>36.275914</v>
-      </c>
-      <c r="S29" s="2">
-        <v>45496.82174923611</v>
+        <v>0.00037</v>
+      </c>
+      <c r="T29">
+        <v>6.932465</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1">
@@ -2202,7 +2202,7 @@
         <v>1.180266</v>
       </c>
       <c r="R31">
-        <v>10.221447</v>
+        <v>10.237164</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1">
@@ -2452,7 +2452,7 @@
         <v>0.00044</v>
       </c>
       <c r="R36">
-        <v>43.16485</v>
+        <v>43.180567</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1">
@@ -2518,7 +2518,7 @@
         <v>14.977234</v>
       </c>
       <c r="T37">
-        <v>234.095394</v>
+        <v>234.111111</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1">
@@ -2564,7 +2564,7 @@
         <v>34.876539</v>
       </c>
       <c r="O38">
-        <v>109.221701</v>
+        <v>109.237419</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="1">
@@ -2722,50 +2722,35 @@
         <v>13.853981</v>
       </c>
       <c r="O41">
-        <v>11.40397</v>
+        <v>11.419688</v>
       </c>
     </row>
     <row r="42" ht="18" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Samuel</t>
+          <t>Júlia Cabral</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Leads não-qualificados</t>
+          <t>Base de prospects</t>
         </is>
       </c>
       <c r="C42" s="2">
-        <v>45425.76325756944</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Anakainosis</t>
-        </is>
+        <v>45512.7205259375</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Camila Chagas</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Startup</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Meio Ambiente e Sustentabilidade</t>
+          <t>Nayara VIthória Araújo de Sena</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Prospecção Ativa</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="M42">
-        <v>6.913449</v>
+        <v>43.243507</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="1">
@@ -2839,29 +2824,44 @@
     <row r="44" ht="18" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Júlia Cabral</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Base de prospects</t>
+          <t>Leads não-qualificados</t>
         </is>
       </c>
       <c r="C44" s="2">
-        <v>45512.7205259375</v>
+        <v>45425.76325756944</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Anakainosis</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Nayara VIthória Araújo de Sena</t>
+          <t>Camila Chagas</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Startup</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Meio Ambiente e Sustentabilidade</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Prospecção Ativa</t>
         </is>
       </c>
       <c r="M44">
-        <v>43.227789</v>
+        <v>6.913449</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1">
@@ -3020,7 +3020,7 @@
     <row r="48" ht="18" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Maria Clara Jacobina Jorge</t>
+          <t>Laura Rocha</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3029,41 +3029,63 @@
         </is>
       </c>
       <c r="C48" s="2">
-        <v>45376.83848447917</v>
+        <v>45362.68831564815</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Produtiva JR</t>
+        </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Nayara VIthória Araújo de Sena</t>
+          <t>Camila Chagas</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Empreendedor</t>
+          <t>Empresas Juniores</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Finanças e Serviços Financeiros</t>
+          <t>Consultoria e Serviços Profissionais</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Concepção, Desenvolvimento Mobile, Desenvolvimento Web</t>
+          <t>Concepção, Desenvolvimento Web</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Indicação MEJ</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Sem Orçamento</t>
         </is>
       </c>
       <c r="M48">
-        <v>20.866481</v>
+        <v>7.011632</v>
+      </c>
+      <c r="O48">
+        <v>21.06985</v>
+      </c>
+      <c r="P48">
+        <v>28.017755</v>
+      </c>
+      <c r="Q48">
+        <v>0.002199</v>
+      </c>
+      <c r="R48">
+        <v>6.974873</v>
       </c>
     </row>
     <row r="49" ht="18" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Laura Rocha</t>
+          <t>Maria Clara Jacobina Jorge</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3072,57 +3094,35 @@
         </is>
       </c>
       <c r="C49" s="2">
-        <v>45362.68831564815</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Produtiva JR</t>
-        </is>
+        <v>45376.83848447917</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Camila Chagas</t>
+          <t>Nayara VIthória Araújo de Sena</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Empresas Juniores</t>
+          <t>Empreendedor</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Consultoria e Serviços Profissionais</t>
+          <t>Finanças e Serviços Financeiros</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Concepção, Desenvolvimento Web</t>
+          <t>Concepção, Desenvolvimento Mobile, Desenvolvimento Web</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Indicação MEJ</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Sem Orçamento</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="M49">
-        <v>7.011632</v>
-      </c>
-      <c r="O49">
-        <v>21.06985</v>
-      </c>
-      <c r="P49">
-        <v>28.017755</v>
-      </c>
-      <c r="Q49">
-        <v>0.002199</v>
-      </c>
-      <c r="R49">
-        <v>6.974873</v>
+        <v>20.866481</v>
       </c>
     </row>
     <row r="50" ht="18" customHeight="1">
@@ -3288,7 +3288,7 @@
         <v>9.3e-05</v>
       </c>
       <c r="O52">
-        <v>9.163368</v>
+        <v>9.179086</v>
       </c>
     </row>
     <row r="53" ht="18" customHeight="1">
@@ -3388,7 +3388,7 @@
         <v>4.013889</v>
       </c>
       <c r="T54">
-        <v>130.207211</v>
+        <v>130.222928</v>
       </c>
     </row>
     <row r="55" ht="18" customHeight="1">
@@ -3448,25 +3448,20 @@
     <row r="56" ht="18" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Matheus Lima</t>
+          <t>Eduardo Vasconcelos</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Leads não-qualificados</t>
+          <t>Ganho</t>
         </is>
       </c>
       <c r="C56" s="2">
-        <v>45330.84638568287</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Monai</t>
-        </is>
+        <v>45495.82480784722</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Hugo Guedes</t>
+          <t>Nayara VIthória Araújo de Sena</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3476,43 +3471,66 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alimentos e Bebidas</t>
+          <t>Educação e Ensino</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Concepção, Desenvolvimento Mobile, Desenvolvimento Web</t>
+          <t>Concepção</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Comunidade CITi</t>
-        </is>
+          <t>CIn</t>
+        </is>
+      </c>
+      <c r="J56">
+        <v>9000</v>
       </c>
       <c r="M56">
-        <v>0.010428</v>
+        <v>8.1e-05</v>
       </c>
       <c r="N56">
-        <v>14.97463</v>
+        <v>6.9164</v>
+      </c>
+      <c r="O56">
+        <v>3.980752</v>
+      </c>
+      <c r="P56">
+        <v>3.063634</v>
+      </c>
+      <c r="Q56">
+        <v>0.968935</v>
+      </c>
+      <c r="R56">
+        <v>2.223241</v>
+      </c>
+      <c r="S56" s="2">
+        <v>45512.97790400463</v>
       </c>
     </row>
     <row r="57" ht="18" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Eduardo Vasconcelos</t>
+          <t>Matheus Lima</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ganho</t>
+          <t>Leads não-qualificados</t>
         </is>
       </c>
       <c r="C57" s="2">
-        <v>45495.82480784722</v>
+        <v>45330.84638568287</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Monai</t>
+        </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Nayara VIthória Araújo de Sena</t>
+          <t>Hugo Guedes</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3522,76 +3540,58 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Educação e Ensino</t>
+          <t>Alimentos e Bebidas</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Concepção</t>
+          <t>Concepção, Desenvolvimento Mobile, Desenvolvimento Web</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>CIn</t>
-        </is>
-      </c>
-      <c r="J57">
-        <v>9000</v>
+          <t>Comunidade CITi</t>
+        </is>
       </c>
       <c r="M57">
-        <v>8.1e-05</v>
+        <v>0.010428</v>
       </c>
       <c r="N57">
-        <v>6.9164</v>
-      </c>
-      <c r="O57">
-        <v>3.980752</v>
-      </c>
-      <c r="P57">
-        <v>3.063634</v>
-      </c>
-      <c r="Q57">
-        <v>0.968935</v>
-      </c>
-      <c r="R57">
-        <v>2.223241</v>
-      </c>
-      <c r="S57" s="2">
-        <v>45512.97790400463</v>
+        <v>14.97463</v>
       </c>
     </row>
     <row r="58" ht="18" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Rogério Pereira</t>
+          <t>Vandelma Couto</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Diagnóstico</t>
+          <t>Perdido</t>
         </is>
       </c>
       <c r="C58" s="2">
-        <v>45517.80343648148</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>VESTED</t>
-        </is>
+        <v>45425.76399881944</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Hugo Guedes</t>
+          <t>Camila Chagas</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Startup</t>
+          <t>Empreendedor</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Finanças e Serviços Financeiros</t>
+          <t>Saúde e Cuidados Médicos</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Concepção, Desenvolvimento Mobile</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3599,11 +3599,28 @@
           <t>Prospecção Ativa</t>
         </is>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Sem Orçamento</t>
+        </is>
+      </c>
       <c r="M58">
-        <v>7.945949</v>
+        <v>2.123056</v>
+      </c>
+      <c r="N58">
+        <v>11.647153</v>
       </c>
       <c r="O58">
-        <v>30.198912</v>
+        <v>0.001065</v>
+      </c>
+      <c r="P58">
+        <v>21.009063</v>
+      </c>
+      <c r="Q58">
+        <v>0.000278</v>
+      </c>
+      <c r="R58">
+        <v>43.131238</v>
       </c>
     </row>
     <row r="59" ht="18" customHeight="1">
@@ -3672,35 +3689,40 @@
     <row r="60" ht="18" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Vandelma Couto</t>
+          <t>Luana</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Perdido</t>
+          <t>Negociação</t>
         </is>
       </c>
       <c r="C60" s="2">
-        <v>45425.76399881944</v>
+        <v>45519.74247737268</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Ferreira Costa</t>
+        </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Camila Chagas</t>
+          <t>Igor Corrêa</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Empreendedor</t>
+          <t>Empresa consolidada</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Saúde e Cuidados Médicos</t>
+          <t>Varejo e Comércio Eletrônico</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Concepção, Desenvolvimento Mobile</t>
+          <t>Synergy</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3708,67 +3730,51 @@
           <t>Prospecção Ativa</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Sem Orçamento</t>
-        </is>
-      </c>
       <c r="M60">
-        <v>2.123056</v>
-      </c>
-      <c r="N60">
-        <v>11.647153</v>
-      </c>
-      <c r="O60">
-        <v>0.001065</v>
+        <v>0.000127</v>
       </c>
       <c r="P60">
-        <v>21.009063</v>
+        <v>20.119664</v>
       </c>
       <c r="Q60">
-        <v>0.000278</v>
+        <v>0.000255</v>
       </c>
       <c r="R60">
-        <v>43.131238</v>
+        <v>16.101481</v>
       </c>
     </row>
     <row r="61" ht="18" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Luana</t>
+          <t>Rogério Pereira</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Negociação</t>
+          <t>Diagnóstico</t>
         </is>
       </c>
       <c r="C61" s="2">
-        <v>45519.74247737268</v>
+        <v>45517.80343648148</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Ferreira Costa</t>
+          <t>VESTED</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Igor Corrêa</t>
+          <t>Hugo Guedes</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Empresa consolidada</t>
+          <t>Startup</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Varejo e Comércio Eletrônico</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Synergy</t>
+          <t>Finanças e Serviços Financeiros</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3777,16 +3783,10 @@
         </is>
       </c>
       <c r="M61">
-        <v>0.000127</v>
-      </c>
-      <c r="P61">
-        <v>20.119664</v>
-      </c>
-      <c r="Q61">
-        <v>0.000255</v>
-      </c>
-      <c r="R61">
-        <v>16.085764</v>
+        <v>7.945949</v>
+      </c>
+      <c r="O61">
+        <v>30.21463</v>
       </c>
     </row>
     <row r="62" ht="18" customHeight="1">
@@ -3908,7 +3908,7 @@
         <v>7.022882</v>
       </c>
       <c r="T63">
-        <v>193.16419</v>
+        <v>193.179907</v>
       </c>
     </row>
     <row r="64" ht="18" customHeight="1">
@@ -4247,114 +4247,114 @@
         <v>28.182292</v>
       </c>
       <c r="T69">
-        <v>81.055752</v>
+        <v>81.07147000000001</v>
       </c>
     </row>
     <row r="70" ht="18" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Leonardo Bicalho</t>
+          <t>Gabriel Oliveira</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Perdido</t>
+          <t>Renegociação</t>
         </is>
       </c>
       <c r="C70" s="2">
-        <v>45475.69068354167</v>
+        <v>45306.88628740741</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Mais Education</t>
+        </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Nayara VIthória Araújo de Sena</t>
+          <t>Pedro de Lima Fernandes Costa</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Empreendedor</t>
+          <t>Startup</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Educação e Ensino</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desenvolvimento Web</t>
+          <t>Concepção, Desenvolvimento Mobile</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Marketing</t>
-        </is>
+          <t>Eventos</t>
+        </is>
+      </c>
+      <c r="J70">
+        <v>10500</v>
       </c>
       <c r="M70">
-        <v>20.000949</v>
+        <v>4.6e-05</v>
+      </c>
+      <c r="N70">
+        <v>8.1e-05</v>
+      </c>
+      <c r="O70">
+        <v>0.000278</v>
+      </c>
+      <c r="P70">
+        <v>6.740868</v>
+      </c>
+      <c r="Q70">
+        <v>7.121354</v>
+      </c>
+      <c r="R70">
+        <v>56.040683</v>
+      </c>
+      <c r="T70">
+        <v>179.174398</v>
       </c>
     </row>
     <row r="71" ht="18" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Gabriel Oliveira</t>
+          <t>Leonardo Bicalho</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Renegociação</t>
+          <t>Perdido</t>
         </is>
       </c>
       <c r="C71" s="2">
-        <v>45306.88628740741</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Mais Education</t>
-        </is>
+        <v>45475.69068354167</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Pedro de Lima Fernandes Costa</t>
+          <t>Nayara VIthória Araújo de Sena</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Startup</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Educação e Ensino</t>
+          <t>Empreendedor</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Concepção, Desenvolvimento Mobile</t>
+          <t>Desenvolvimento Web</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Eventos</t>
-        </is>
-      </c>
-      <c r="J71">
-        <v>10500</v>
+          <t>Marketing</t>
+        </is>
       </c>
       <c r="M71">
-        <v>4.6e-05</v>
-      </c>
-      <c r="N71">
-        <v>8.1e-05</v>
-      </c>
-      <c r="O71">
-        <v>0.000278</v>
-      </c>
-      <c r="P71">
-        <v>6.740868</v>
-      </c>
-      <c r="Q71">
-        <v>7.121354</v>
-      </c>
-      <c r="R71">
-        <v>56.040683</v>
-      </c>
-      <c r="T71">
-        <v>179.158681</v>
+        <v>20.000949</v>
       </c>
     </row>
     <row r="72" ht="18" customHeight="1">
@@ -4517,7 +4517,7 @@
         <v>0.000185</v>
       </c>
       <c r="O74">
-        <v>2.196192</v>
+        <v>2.21191</v>
       </c>
     </row>
     <row r="75" ht="18" customHeight="1">
@@ -4580,7 +4580,7 @@
         <v>0.000243</v>
       </c>
       <c r="R75">
-        <v>46.204826</v>
+        <v>46.220544</v>
       </c>
     </row>
     <row r="76" ht="18" customHeight="1">
@@ -4703,7 +4703,7 @@
         <v>9.045624999999999</v>
       </c>
       <c r="R77">
-        <v>10.220336</v>
+        <v>10.236053</v>
       </c>
       <c r="T77">
         <v>5.998125</v>
@@ -4922,7 +4922,7 @@
         <v>0.001227</v>
       </c>
       <c r="R81">
-        <v>4.35478</v>
+        <v>4.370498</v>
       </c>
     </row>
     <row r="82" ht="18" customHeight="1">
@@ -4973,7 +4973,7 @@
         <v>23.0286</v>
       </c>
       <c r="O82">
-        <v>16.261181</v>
+        <v>16.276898</v>
       </c>
     </row>
     <row r="83" ht="18" customHeight="1">
@@ -5102,161 +5102,161 @@
         <v>18.981551</v>
       </c>
       <c r="T84">
-        <v>193.265475</v>
+        <v>193.281192</v>
       </c>
     </row>
     <row r="85" ht="18" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
+          <t>Maicon Brande</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Leads não-qualificados</t>
+        </is>
+      </c>
+      <c r="C85" s="2">
+        <v>45351.8215091088</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>AQUi9</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Camila Chagas</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Startup</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Agricultura e Agroindústria</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Prospecção Ativa</t>
+        </is>
+      </c>
+      <c r="M85">
+        <v>14.841331</v>
+      </c>
+    </row>
+    <row r="86" ht="18" customHeight="1">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>João Hider</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Leads não-qualificados</t>
+        </is>
+      </c>
+      <c r="C86" s="2">
+        <v>45373.81694111111</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epro Consultoria </t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Hugo Guedes</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Startup</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Consultoria e Serviços Profissionais</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Site institucional</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>O lead não informou com exatidão, mas eu suponho que tenha sido por questões financeiras.</t>
+        </is>
+      </c>
+      <c r="M86">
+        <v>0.00015</v>
+      </c>
+      <c r="N86">
+        <v>3.022708</v>
+      </c>
+      <c r="O86">
+        <v>0.001088</v>
+      </c>
+      <c r="P86">
+        <v>6.915683</v>
+      </c>
+    </row>
+    <row r="87" ht="18" customHeight="1">
+      <c r="A87" t="inlineStr">
+        <is>
           <t>Guilherme Sanches</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>Leads não-qualificados</t>
         </is>
       </c>
-      <c r="C85" s="2">
+      <c r="C87" s="2">
         <v>45351.75853175926</v>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>eNe</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>Hugo Guedes</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>Startup</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>Agricultura e Agroindústria</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>Prospecção Ativa</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="L87" t="inlineStr">
         <is>
           <t xml:space="preserve">O lead informou que já tem uma equipe trabalhando na solução deles.
 </t>
         </is>
       </c>
-      <c r="M85">
+      <c r="M87">
         <v>4.001759</v>
-      </c>
-    </row>
-    <row r="86" ht="18" customHeight="1">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Maicon Brande</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Leads não-qualificados</t>
-        </is>
-      </c>
-      <c r="C86" s="2">
-        <v>45351.8215091088</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>AQUi9</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Camila Chagas</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Startup</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Agricultura e Agroindústria</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>Prospecção Ativa</t>
-        </is>
-      </c>
-      <c r="M86">
-        <v>14.841331</v>
-      </c>
-    </row>
-    <row r="87" ht="18" customHeight="1">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>João Hider</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Leads não-qualificados</t>
-        </is>
-      </c>
-      <c r="C87" s="2">
-        <v>45373.81694111111</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epro Consultoria </t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Hugo Guedes</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Startup</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Consultoria e Serviços Profissionais</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Site institucional</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Marketing</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>O lead não informou com exatidão, mas eu suponho que tenha sido por questões financeiras.</t>
-        </is>
-      </c>
-      <c r="M87">
-        <v>0.00015</v>
-      </c>
-      <c r="N87">
-        <v>3.022708</v>
-      </c>
-      <c r="O87">
-        <v>0.001088</v>
-      </c>
-      <c r="P87">
-        <v>6.915683</v>
       </c>
     </row>
     <row r="88" ht="18" customHeight="1">
@@ -5470,7 +5470,7 @@
         <v>14.166157</v>
       </c>
       <c r="T91">
-        <v>158.114734</v>
+        <v>158.130451</v>
       </c>
     </row>
     <row r="92" ht="18" customHeight="1">
@@ -5589,13 +5589,13 @@
         <v>6.9e-05</v>
       </c>
       <c r="T93">
-        <v>240.39044</v>
+        <v>240.406157</v>
       </c>
     </row>
     <row r="94" ht="18" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Augusto Dantas</t>
+          <t>Dae Sung Robson</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5604,41 +5604,39 @@
         </is>
       </c>
       <c r="C94" s="2">
-        <v>45330.84483395833</v>
+        <v>45315.7436387037</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Nayara VIthória Araújo de Sena</t>
+          <t>Vinicius Zorrilla</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Startup</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Tecnologia da Informação (TI)</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Synergy</t>
+          <t>Empreendedor</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Comunidade CITi</t>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Chegou por marketing e nunca respondeu a nenhuma mensagem.</t>
         </is>
       </c>
       <c r="M94">
-        <v>0.007697</v>
+        <v>5.008252</v>
+      </c>
+      <c r="N94">
+        <v>20.994086</v>
       </c>
     </row>
     <row r="95" ht="18" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Dae Sung Robson</t>
+          <t>Augusto Dantas</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5647,39 +5645,41 @@
         </is>
       </c>
       <c r="C95" s="2">
-        <v>45315.7436387037</v>
+        <v>45330.84483395833</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Vinicius Zorrilla</t>
+          <t>Nayara VIthória Araújo de Sena</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Empreendedor</t>
+          <t>Startup</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Tecnologia da Informação (TI)</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Synergy</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Marketing</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Chegou por marketing e nunca respondeu a nenhuma mensagem.</t>
+          <t>Comunidade CITi</t>
         </is>
       </c>
       <c r="M95">
-        <v>5.008252</v>
-      </c>
-      <c r="N95">
-        <v>20.994086</v>
+        <v>0.007697</v>
       </c>
     </row>
     <row r="96" ht="18" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Anderson Rios</t>
+          <t>Paulo Lima</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5688,12 +5688,7 @@
         </is>
       </c>
       <c r="C96" s="2">
-        <v>45517.78074487268</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Simplou</t>
-        </is>
+        <v>45397.78213076389</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -5702,38 +5697,50 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Startup</t>
+          <t>Empreendedor</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Tecnologia da Informação (TI)</t>
+          <t>Turismo e Hospitalidade</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Synergy</t>
+          <t>Concepção, Desenvolvimento Mobile, Desenvolvimento Web</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Prospecção Ativa</t>
+          <t>Membre do CITi</t>
         </is>
       </c>
       <c r="M96">
-        <v>3.04765</v>
+        <v>0.000208</v>
+      </c>
+      <c r="N96">
+        <v>0.000139</v>
       </c>
       <c r="O96">
-        <v>10.888414</v>
+        <v>14.034063</v>
+      </c>
+      <c r="P96">
+        <v>2.96066</v>
+      </c>
+      <c r="Q96">
+        <v>0.000104</v>
+      </c>
+      <c r="R96">
+        <v>18.05294</v>
       </c>
       <c r="T96">
-        <v>24.231493</v>
+        <v>123.13375</v>
       </c>
     </row>
     <row r="97" ht="18" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Paulo Lima</t>
+          <t>Anderson Rios</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5742,7 +5749,12 @@
         </is>
       </c>
       <c r="C97" s="2">
-        <v>45397.78213076389</v>
+        <v>45517.78074487268</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Simplou</t>
+        </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5751,44 +5763,32 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Empreendedor</t>
+          <t>Startup</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Turismo e Hospitalidade</t>
+          <t>Tecnologia da Informação (TI)</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Concepção, Desenvolvimento Mobile, Desenvolvimento Web</t>
+          <t>Synergy</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Membre do CITi</t>
+          <t>Prospecção Ativa</t>
         </is>
       </c>
       <c r="M97">
-        <v>0.000208</v>
-      </c>
-      <c r="N97">
-        <v>0.000139</v>
+        <v>3.04765</v>
       </c>
       <c r="O97">
-        <v>14.034063</v>
-      </c>
-      <c r="P97">
-        <v>2.96066</v>
-      </c>
-      <c r="Q97">
-        <v>0.000104</v>
-      </c>
-      <c r="R97">
-        <v>18.05294</v>
+        <v>10.888414</v>
       </c>
       <c r="T97">
-        <v>123.118032</v>
+        <v>24.247211</v>
       </c>
     </row>
     <row r="98" ht="18" customHeight="1">
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="M98">
-        <v>38.14669</v>
+        <v>38.162407</v>
       </c>
     </row>
     <row r="99" ht="18" customHeight="1">
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="M102">
-        <v>11.277049</v>
+        <v>11.292766</v>
       </c>
     </row>
     <row r="103" ht="18" customHeight="1">
@@ -6066,107 +6066,107 @@
     <row r="104" ht="18" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Bruno</t>
+          <t>Juliana Cordeiro Cardoso</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ganho</t>
+          <t>Perdido</t>
         </is>
       </c>
       <c r="C104" s="2">
-        <v>45512.83065270833</v>
+        <v>45351.75765042824</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Mídia7</t>
+          <t>3D Pharma</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Igor Corrêa</t>
+          <t>Hugo Guedes</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Empresa consolidada</t>
+          <t>Startup</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Setor Público e Governo</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Concepção, Desenvolvimento Web</t>
+          <t>Biotecnologia e Farmacêutica</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Ex cliente</t>
-        </is>
-      </c>
-      <c r="J104">
-        <v>71500</v>
+          <t>Prospecção Ativa</t>
+        </is>
       </c>
       <c r="M104">
-        <v>0.000671</v>
-      </c>
-      <c r="R104">
-        <v>26.991331</v>
-      </c>
-      <c r="S104" s="2">
-        <v>45539.82268084491</v>
+        <v>4.003322</v>
+      </c>
+      <c r="N104">
+        <v>6.97103</v>
+      </c>
+      <c r="T104">
+        <v>112.155486</v>
       </c>
     </row>
     <row r="105" ht="18" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Juliana Cordeiro Cardoso</t>
+          <t>Bruno</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Perdido</t>
+          <t>Ganho</t>
         </is>
       </c>
       <c r="C105" s="2">
-        <v>45351.75765042824</v>
+        <v>45512.83065270833</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>3D Pharma</t>
+          <t>Mídia7</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Hugo Guedes</t>
+          <t>Igor Corrêa</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Startup</t>
+          <t>Empresa consolidada</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Biotecnologia e Farmacêutica</t>
+          <t>Setor Público e Governo</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Concepção, Desenvolvimento Web</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Prospecção Ativa</t>
-        </is>
+          <t>Ex cliente</t>
+        </is>
+      </c>
+      <c r="J105">
+        <v>71500</v>
       </c>
       <c r="M105">
-        <v>4.003322</v>
-      </c>
-      <c r="N105">
-        <v>6.97103</v>
-      </c>
-      <c r="T105">
-        <v>112.155486</v>
+        <v>0.000671</v>
+      </c>
+      <c r="R105">
+        <v>26.991331</v>
+      </c>
+      <c r="S105" s="2">
+        <v>45539.82268084491</v>
       </c>
     </row>
     <row r="106" ht="18" customHeight="1">
@@ -6268,7 +6268,7 @@
         <v>0.000139</v>
       </c>
       <c r="P107">
-        <v>0.13647</v>
+        <v>0.152188</v>
       </c>
     </row>
     <row r="108" ht="18" customHeight="1">
@@ -6333,25 +6333,25 @@
     <row r="109" ht="18" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Marcos Sobral</t>
+          <t>Ivan Coelho</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Ganho</t>
+          <t>Renegociação</t>
         </is>
       </c>
       <c r="C109" s="2">
-        <v>45313.83727083333</v>
+        <v>45390.80701568287</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>FADURPE</t>
+          <t>Prainha ZN</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Igor Corrêa</t>
+          <t>Vinicius Zorrilla</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6361,54 +6361,57 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Educação e Ensino</t>
+          <t>Esportes</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desenvolvimento Web</t>
+          <t>Concepção, Desenvolvimento Mobile, Desenvolvimento Web</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Indicação MEJ</t>
-        </is>
-      </c>
-      <c r="J109">
-        <v>71500</v>
+          <t>Porto Digital</t>
+        </is>
       </c>
       <c r="M109">
-        <v>0.000208</v>
+        <v>5.8e-05</v>
+      </c>
+      <c r="P109">
+        <v>11.07985</v>
+      </c>
+      <c r="Q109">
+        <v>0.000498</v>
       </c>
       <c r="R109">
-        <v>15.650486</v>
-      </c>
-      <c r="S109" s="2">
-        <v>45329.4879421412</v>
+        <v>26.694861</v>
+      </c>
+      <c r="T109">
+        <v>127.381713</v>
       </c>
     </row>
     <row r="110" ht="18" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Ivan Coelho</t>
+          <t>Marcos Sobral</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Renegociação</t>
+          <t>Ganho</t>
         </is>
       </c>
       <c r="C110" s="2">
-        <v>45390.80701568287</v>
+        <v>45313.83727083333</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Prainha ZN</t>
+          <t>FADURPE</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Vinicius Zorrilla</t>
+          <t>Igor Corrêa</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6418,33 +6421,30 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Esportes</t>
+          <t>Educação e Ensino</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Concepção, Desenvolvimento Mobile, Desenvolvimento Web</t>
+          <t>Desenvolvimento Web</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Porto Digital</t>
-        </is>
+          <t>Indicação MEJ</t>
+        </is>
+      </c>
+      <c r="J110">
+        <v>71500</v>
       </c>
       <c r="M110">
-        <v>5.8e-05</v>
-      </c>
-      <c r="P110">
-        <v>11.07985</v>
-      </c>
-      <c r="Q110">
-        <v>0.000498</v>
+        <v>0.000208</v>
       </c>
       <c r="R110">
-        <v>26.694861</v>
-      </c>
-      <c r="T110">
-        <v>127.365995</v>
+        <v>15.650486</v>
+      </c>
+      <c r="S110" s="2">
+        <v>45329.4879421412</v>
       </c>
     </row>
     <row r="111" ht="18" customHeight="1">
@@ -6588,7 +6588,7 @@
     <row r="113" ht="18" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Luiz Felippe Lima</t>
+          <t>Arthur Lira</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="C113" s="2">
-        <v>45426.76729006945</v>
+        <v>45306.77554454861</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>IT Solar</t>
+          <t>Fatto Inteligência Política</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Vinicius Zorrilla</t>
+          <t>Pedro de Lima Fernandes Costa</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6616,38 +6616,50 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Energia e Sustentabilidade</t>
+          <t>Consultoria e Serviços Profissionais</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desenvolvimento Mobile, Desenvolvimento Web</t>
+          <t>Concepção, Desenvolvimento Mobile</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Parcerias</t>
-        </is>
+          <t>Membre do CITi</t>
+        </is>
+      </c>
+      <c r="J113">
+        <v>30000</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Prazo incompatível</t>
+          <t>Perda para Concorrência</t>
         </is>
       </c>
       <c r="M113">
-        <v>0.021088</v>
+        <v>0.002836</v>
+      </c>
+      <c r="N113">
+        <v>0.000116</v>
       </c>
       <c r="O113">
-        <v>2.095706</v>
+        <v>0.000532</v>
       </c>
       <c r="P113">
-        <v>66.67569399999999</v>
+        <v>0.000625</v>
+      </c>
+      <c r="Q113">
+        <v>0.000556</v>
+      </c>
+      <c r="R113">
+        <v>22.971493</v>
       </c>
     </row>
     <row r="114" ht="18" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Arthur Lira</t>
+          <t>Ana Julia Karine</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6656,69 +6668,66 @@
         </is>
       </c>
       <c r="C114" s="2">
-        <v>45306.77554454861</v>
+        <v>45385.53676004629</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Fatto Inteligência Política</t>
+          <t>VegRosas</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Pedro de Lima Fernandes Costa</t>
+          <t>Hugo Guedes</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Empresa consolidada</t>
+          <t>Empreendedor</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Consultoria e Serviços Profissionais</t>
+          <t>Alimentos e Bebidas</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Concepção, Desenvolvimento Mobile</t>
+          <t>Desenvolvimento Web, Ecommerce, Site institucional</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Membre do CITi</t>
-        </is>
-      </c>
-      <c r="J114">
-        <v>30000</v>
+          <t>Marketing</t>
+        </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Perda para Concorrência</t>
+          <t>Não é o momento para a empresa</t>
         </is>
       </c>
       <c r="M114">
-        <v>0.002836</v>
+        <v>0.000127</v>
       </c>
       <c r="N114">
-        <v>0.000116</v>
+        <v>0.00066</v>
       </c>
       <c r="O114">
-        <v>0.000532</v>
+        <v>26.269329</v>
       </c>
       <c r="P114">
-        <v>0.000625</v>
+        <v>0.001713</v>
       </c>
       <c r="Q114">
-        <v>0.000556</v>
+        <v>0.000498</v>
       </c>
       <c r="R114">
-        <v>22.971493</v>
+        <v>20.858449</v>
       </c>
     </row>
     <row r="115" ht="18" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Ana Julia Karine</t>
+          <t>Luiz Felippe Lima</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6727,163 +6736,154 @@
         </is>
       </c>
       <c r="C115" s="2">
-        <v>45385.53676004629</v>
+        <v>45426.76729006945</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>VegRosas</t>
+          <t>IT Solar</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Hugo Guedes</t>
+          <t>Vinicius Zorrilla</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Empreendedor</t>
+          <t>Empresa consolidada</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Alimentos e Bebidas</t>
+          <t>Energia e Sustentabilidade</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desenvolvimento Web, Ecommerce, Site institucional</t>
+          <t>Desenvolvimento Mobile, Desenvolvimento Web</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Parcerias</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Não é o momento para a empresa</t>
+          <t>Prazo incompatível</t>
         </is>
       </c>
       <c r="M115">
-        <v>0.000127</v>
-      </c>
-      <c r="N115">
-        <v>0.00066</v>
+        <v>0.021088</v>
       </c>
       <c r="O115">
-        <v>26.269329</v>
+        <v>2.095706</v>
       </c>
       <c r="P115">
-        <v>0.001713</v>
-      </c>
-      <c r="Q115">
-        <v>0.000498</v>
-      </c>
-      <c r="R115">
-        <v>20.858449</v>
+        <v>66.67569399999999</v>
       </c>
     </row>
     <row r="116" ht="18" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Dara Cristovam</t>
+          <t>Ítalo Rodrigo</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Diagnóstico</t>
+          <t>Montagem de proposta</t>
         </is>
       </c>
       <c r="C116" s="2">
-        <v>45545.73454863425</v>
+        <v>45540.80403894676</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t xml:space="preserve">EJ Unicap </t>
+          <t>Wi Consultoria</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Mateus Guerra</t>
+          <t>Hugo Guedes</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Empreendedor</t>
+          <t>Startup</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Alimentos e Bebidas</t>
+          <t>Tecnologia da Informação (TI)</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Desenvolvimento Web</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Indicação MEJ</t>
+          <t>Prospecção Ativa</t>
         </is>
       </c>
       <c r="M116">
-        <v>0.000116</v>
-      </c>
-      <c r="N116">
-        <v>0.000174</v>
+        <v>0.018449</v>
       </c>
       <c r="O116">
-        <v>10.213461</v>
+        <v>7.03941</v>
+      </c>
+      <c r="P116">
+        <v>8.102118000000001</v>
       </c>
     </row>
     <row r="117" ht="18" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Ítalo Rodrigo</t>
+          <t>Dara Cristovam</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Montagem de proposta</t>
+          <t>Diagnóstico</t>
         </is>
       </c>
       <c r="C117" s="2">
-        <v>45540.80403894676</v>
+        <v>45545.73454863425</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Wi Consultoria</t>
+          <t xml:space="preserve">EJ Unicap </t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Hugo Guedes</t>
+          <t>Mateus Guerra</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Startup</t>
+          <t>Empreendedor</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Tecnologia da Informação (TI)</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Desenvolvimento Web</t>
+          <t>Alimentos e Bebidas</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Prospecção Ativa</t>
+          <t>Indicação MEJ</t>
         </is>
       </c>
       <c r="M117">
-        <v>0.018449</v>
+        <v>0.000116</v>
+      </c>
+      <c r="N117">
+        <v>0.000174</v>
       </c>
       <c r="O117">
-        <v>7.03941</v>
-      </c>
-      <c r="P117">
-        <v>8.086399999999999</v>
+        <v>10.229178</v>
       </c>
     </row>
     <row r="118" ht="18" customHeight="1">
@@ -7181,7 +7181,7 @@
         <v>21.758553</v>
       </c>
       <c r="T122">
-        <v>3.451655</v>
+        <v>3.467373</v>
       </c>
     </row>
     <row r="123" ht="18" customHeight="1">
@@ -7324,94 +7324,58 @@
     <row r="126" ht="18" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Rômulo</t>
+          <t xml:space="preserve">Fabio Acquati </t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Renegociação</t>
+          <t>Base de prospects</t>
         </is>
       </c>
       <c r="C126" s="2">
-        <v>45306.88368202547</v>
+        <v>45551.69664622685</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Best Clima</t>
+          <t>NGN Telecom</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Igor Corrêa</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Empresa consolidada</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Construção e Engenharia</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Concepção, Desenvolvimento Web</t>
+          <t>Camila Chagas</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Indicação de Ej</t>
-        </is>
-      </c>
-      <c r="J126">
-        <v>20800</v>
+          <t>Prospecção LinkedIn</t>
+        </is>
       </c>
       <c r="M126">
-        <v>5.8e-05</v>
-      </c>
-      <c r="N126">
-        <v>0.000116</v>
-      </c>
-      <c r="O126">
-        <v>0.000139</v>
-      </c>
-      <c r="P126">
-        <v>0.000405</v>
-      </c>
-      <c r="Q126">
-        <v>0.000382</v>
-      </c>
-      <c r="R126">
-        <v>27.929549</v>
-      </c>
-      <c r="T126">
-        <v>221.13397</v>
+        <v>4.267384</v>
       </c>
     </row>
     <row r="127" ht="18" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Pedro Leite</t>
+          <t>Eric Franklin</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Leads não-qualificados</t>
+          <t>Diagnóstico</t>
         </is>
       </c>
       <c r="C127" s="2">
-        <v>45439.53310142361</v>
+        <v>45513.85884761574</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Hospital de Ávila</t>
+          <t xml:space="preserve">Key Costumer </t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Camila Chagas</t>
+          <t>Mateus Guerra</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -7421,109 +7385,135 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Saúde e Cuidados Médicos</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Desenvolvimento Web</t>
+          <t>Tecnologia da Informação (TI)</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Prospecção Ativa</t>
         </is>
       </c>
       <c r="M127">
-        <v>7.117326</v>
+        <v>0.000116</v>
       </c>
       <c r="O127">
-        <v>69.99735</v>
+        <v>42.105058</v>
       </c>
     </row>
     <row r="128" ht="18" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Eric Franklin</t>
+          <t>Maicon Serrão Gavino</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Diagnóstico</t>
+          <t>Leads não-qualificados</t>
         </is>
       </c>
       <c r="C128" s="2">
-        <v>45513.85884761574</v>
+        <v>45547.06610502314</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Key Costumer </t>
+          <t xml:space="preserve"> AgroScan</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Mateus Guerra</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Empresa consolidada</t>
+          <t>Vinicius Zorrilla</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Tecnologia da Informação (TI)</t>
+          <t>Agricultura e Agroindústria</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Prospecção Ativa</t>
+          <t>Prospecção LinkedIn</t>
         </is>
       </c>
       <c r="M128">
-        <v>0.000116</v>
+        <v>9.3e-05</v>
       </c>
       <c r="O128">
-        <v>42.08934</v>
+        <v>1.596377</v>
       </c>
     </row>
     <row r="129" ht="18" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fabio Acquati </t>
+          <t>Rômulo</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Base de prospects</t>
+          <t>Renegociação</t>
         </is>
       </c>
       <c r="C129" s="2">
-        <v>45551.69664622685</v>
+        <v>45306.88368202547</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>NGN Telecom</t>
+          <t>Best Clima</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Camila Chagas</t>
+          <t>Igor Corrêa</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Empresa consolidada</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Construção e Engenharia</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Concepção, Desenvolvimento Web</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Prospecção LinkedIn</t>
-        </is>
+          <t>Indicação de Ej</t>
+        </is>
+      </c>
+      <c r="J129">
+        <v>20800</v>
       </c>
       <c r="M129">
-        <v>4.251667</v>
+        <v>5.8e-05</v>
+      </c>
+      <c r="N129">
+        <v>0.000116</v>
+      </c>
+      <c r="O129">
+        <v>0.000139</v>
+      </c>
+      <c r="P129">
+        <v>0.000405</v>
+      </c>
+      <c r="Q129">
+        <v>0.000382</v>
+      </c>
+      <c r="R129">
+        <v>27.929549</v>
+      </c>
+      <c r="T129">
+        <v>221.149688</v>
       </c>
     </row>
     <row r="130" ht="18" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Maicon Serrão Gavino</t>
+          <t>Pedro Leite</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -7532,33 +7522,43 @@
         </is>
       </c>
       <c r="C130" s="2">
-        <v>45547.06610502314</v>
+        <v>45439.53310142361</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AgroScan</t>
+          <t>Hospital de Ávila</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Vinicius Zorrilla</t>
+          <t>Camila Chagas</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Empresa consolidada</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Agricultura e Agroindústria</t>
+          <t>Saúde e Cuidados Médicos</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Desenvolvimento Web</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Prospecção LinkedIn</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="M130">
-        <v>9.3e-05</v>
+        <v>7.117326</v>
       </c>
       <c r="O130">
-        <v>1.596377</v>
+        <v>69.99735</v>
       </c>
     </row>
     <row r="131" ht="18" customHeight="1">
@@ -7626,240 +7626,240 @@
     <row r="132" ht="18" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
+          <t>Murilo Ferreira</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Renegociação</t>
+        </is>
+      </c>
+      <c r="C132" s="2">
+        <v>45323.50310868055</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Cohab-SP</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Pedro de Lima Fernandes Costa</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Empresa consolidada</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Setor Público e Governo</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Concepção, Desenvolvimento Web</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Ex cliente</t>
+        </is>
+      </c>
+      <c r="M132">
+        <v>5.8e-05</v>
+      </c>
+      <c r="N132">
+        <v>8.1e-05</v>
+      </c>
+      <c r="O132">
+        <v>0.000255</v>
+      </c>
+      <c r="P132">
+        <v>46.210521</v>
+      </c>
+      <c r="Q132">
+        <v>3.076123</v>
+      </c>
+      <c r="R132">
+        <v>21.006528</v>
+      </c>
+      <c r="T132">
+        <v>162.167303</v>
+      </c>
+    </row>
+    <row r="133" ht="18" customHeight="1">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Paulo Bettega</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Renegociação</t>
+        </is>
+      </c>
+      <c r="C133" s="2">
+        <v>45461.54562056713</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Effix - Psiquiatria Integrada</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Hugo Guedes</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Empreendedor</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Saúde e Cuidados Médicos</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Desenvolvimento Web</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Indicação de Ej</t>
+        </is>
+      </c>
+      <c r="M133">
+        <v>20.15809</v>
+      </c>
+      <c r="O133">
+        <v>0.000926</v>
+      </c>
+      <c r="P133">
+        <v>44.044838</v>
+      </c>
+      <c r="T133">
+        <v>30.214537</v>
+      </c>
+    </row>
+    <row r="134" ht="18" customHeight="1">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Fernando</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Leads não-qualificados</t>
+        </is>
+      </c>
+      <c r="C134" s="2">
+        <v>45307.74489670139</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Xcar</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Vinicius Zorrilla</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Startup</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Transporte e Logística</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Squad as a Service, Synergy</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Prospecção Ativa</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Fiz diversos fups e ele não deu um retorno</t>
+        </is>
+      </c>
+      <c r="M134">
+        <v>6.832188</v>
+      </c>
+      <c r="O134">
+        <v>41.961331</v>
+      </c>
+    </row>
+    <row r="135" ht="18" customHeight="1">
+      <c r="A135" t="inlineStr">
+        <is>
           <t>Ivan Torres</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>Leads não-qualificados</t>
         </is>
       </c>
-      <c r="C132" s="2">
+      <c r="C135" s="2">
         <v>45313.70727600694</v>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>IBC Viagens</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>Pedro de Lima Fernandes Costa</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>Empresa consolidada</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>Turismo e Hospitalidade</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>Concepção</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr">
+      <c r="I135" t="inlineStr">
         <is>
           <t>Comunidade CITi</t>
         </is>
       </c>
-      <c r="L132" t="inlineStr">
+      <c r="L135" t="inlineStr">
         <is>
           <t xml:space="preserve">não tem ideia do que quer e nem tem urgência
 </t>
         </is>
       </c>
-      <c r="M132">
+      <c r="M135">
         <v>0.000197</v>
       </c>
-      <c r="N132">
+      <c r="N135">
         <v>0.000498</v>
       </c>
-      <c r="O132">
+      <c r="O135">
         <v>1.856424</v>
-      </c>
-    </row>
-    <row r="133" ht="18" customHeight="1">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Fernando</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Leads não-qualificados</t>
-        </is>
-      </c>
-      <c r="C133" s="2">
-        <v>45307.74489670139</v>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Xcar</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Vinicius Zorrilla</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Startup</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>Transporte e Logística</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Squad as a Service, Synergy</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>Prospecção Ativa</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Fiz diversos fups e ele não deu um retorno</t>
-        </is>
-      </c>
-      <c r="M133">
-        <v>6.832188</v>
-      </c>
-      <c r="O133">
-        <v>41.961331</v>
-      </c>
-    </row>
-    <row r="134" ht="18" customHeight="1">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Murilo Ferreira</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Renegociação</t>
-        </is>
-      </c>
-      <c r="C134" s="2">
-        <v>45323.50310868055</v>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Cohab-SP</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Pedro de Lima Fernandes Costa</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Empresa consolidada</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>Setor Público e Governo</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Concepção, Desenvolvimento Web</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>Ex cliente</t>
-        </is>
-      </c>
-      <c r="M134">
-        <v>5.8e-05</v>
-      </c>
-      <c r="N134">
-        <v>8.1e-05</v>
-      </c>
-      <c r="O134">
-        <v>0.000255</v>
-      </c>
-      <c r="P134">
-        <v>46.210521</v>
-      </c>
-      <c r="Q134">
-        <v>3.076123</v>
-      </c>
-      <c r="R134">
-        <v>21.006528</v>
-      </c>
-      <c r="T134">
-        <v>162.151586</v>
-      </c>
-    </row>
-    <row r="135" ht="18" customHeight="1">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Paulo Bettega</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Renegociação</t>
-        </is>
-      </c>
-      <c r="C135" s="2">
-        <v>45461.54562056713</v>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Effix - Psiquiatria Integrada</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Hugo Guedes</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Empreendedor</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>Saúde e Cuidados Médicos</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Desenvolvimento Web</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>Indicação de Ej</t>
-        </is>
-      </c>
-      <c r="M135">
-        <v>20.15809</v>
-      </c>
-      <c r="O135">
-        <v>0.000926</v>
-      </c>
-      <c r="P135">
-        <v>44.044838</v>
-      </c>
-      <c r="T135">
-        <v>30.198819</v>
       </c>
     </row>
     <row r="136" ht="18" customHeight="1">
@@ -8172,7 +8172,7 @@
         <v>6.097674</v>
       </c>
       <c r="O141">
-        <v>4.251493</v>
+        <v>4.267211</v>
       </c>
     </row>
     <row r="142" ht="18" customHeight="1">
@@ -8343,7 +8343,7 @@
         <v>17.095104</v>
       </c>
       <c r="T144">
-        <v>144.14331</v>
+        <v>144.159028</v>
       </c>
     </row>
     <row r="145" ht="18" customHeight="1">
@@ -8492,7 +8492,7 @@
         <v>15.037593</v>
       </c>
       <c r="T147">
-        <v>10.220532</v>
+        <v>10.23625</v>
       </c>
     </row>
     <row r="148" ht="18" customHeight="1">
@@ -8777,26 +8777,31 @@
         <v>0.000139</v>
       </c>
       <c r="T152">
-        <v>230.611481</v>
+        <v>230.627199</v>
       </c>
     </row>
     <row r="153" ht="18" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sophia Rocha</t>
+          <t>Hélio Batista</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Perdido</t>
+          <t>Ganho</t>
         </is>
       </c>
       <c r="C153" s="2">
-        <v>45397.74006953703</v>
+        <v>45474.86187685185</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Medeiros Batista, by Advocatus</t>
+        </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Nayara VIthória Araújo de Sena</t>
+          <t>Hugo Guedes</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8811,60 +8816,56 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Concepção, Desenvolvimento Web</t>
+          <t>Site institucional</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Marketing</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>Não é o momento para a empresa</t>
-        </is>
+          <t>CIn</t>
+        </is>
+      </c>
+      <c r="J153">
+        <v>2400</v>
       </c>
       <c r="M153">
-        <v>14.067164</v>
+        <v>0.019016</v>
+      </c>
+      <c r="N153">
+        <v>2.661655</v>
       </c>
       <c r="O153">
-        <v>0.000451</v>
+        <v>0.003391</v>
       </c>
       <c r="P153">
-        <v>13.732963</v>
+        <v>19.054375</v>
       </c>
       <c r="Q153">
-        <v>0.000185</v>
+        <v>9.233136999999999</v>
       </c>
       <c r="R153">
-        <v>7.294896</v>
-      </c>
-      <c r="T153">
-        <v>48.849317</v>
+        <v>4.902535</v>
+      </c>
+      <c r="S153" s="2">
+        <v>45510.73603761574</v>
       </c>
     </row>
     <row r="154" ht="18" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Hélio Batista</t>
+          <t>Sophia Rocha</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Ganho</t>
+          <t>Perdido</t>
         </is>
       </c>
       <c r="C154" s="2">
-        <v>45474.86187685185</v>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Medeiros Batista, by Advocatus</t>
-        </is>
+        <v>45397.74006953703</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Hugo Guedes</t>
+          <t>Nayara VIthória Araújo de Sena</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8879,37 +8880,36 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Site institucional</t>
+          <t>Concepção, Desenvolvimento Web</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>CIn</t>
-        </is>
-      </c>
-      <c r="J154">
-        <v>2400</v>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>Não é o momento para a empresa</t>
+        </is>
       </c>
       <c r="M154">
-        <v>0.019016</v>
-      </c>
-      <c r="N154">
-        <v>2.661655</v>
+        <v>14.067164</v>
       </c>
       <c r="O154">
-        <v>0.003391</v>
+        <v>0.000451</v>
       </c>
       <c r="P154">
-        <v>19.054375</v>
+        <v>13.732963</v>
       </c>
       <c r="Q154">
-        <v>9.233136999999999</v>
+        <v>0.000185</v>
       </c>
       <c r="R154">
-        <v>4.902535</v>
-      </c>
-      <c r="S154" s="2">
-        <v>45510.73603761574</v>
+        <v>7.294896</v>
+      </c>
+      <c r="T154">
+        <v>48.849317</v>
       </c>
     </row>
     <row r="155" ht="18" customHeight="1">
